--- a/3. results/d. Tables/Rationing - Top7.xlsx
+++ b/3. results/d. Tables/Rationing - Top7.xlsx
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F40">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G40">
-        <v>77.17</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1375,10 +1375,10 @@
         <v>48</v>
       </c>
       <c r="F41">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G41">
-        <v>10.96</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1398,10 +1398,10 @@
         <v>30</v>
       </c>
       <c r="F42">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G42">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="F43">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G43">
         <v>2.97</v>
@@ -1444,10 +1444,10 @@
         <v>9</v>
       </c>
       <c r="F44">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G44">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1464,13 +1464,13 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F45">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G45">
-        <v>63.01</v>
+        <v>62.93</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1490,10 +1490,10 @@
         <v>64</v>
       </c>
       <c r="F46">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G46">
-        <v>14.61</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1513,10 +1513,10 @@
         <v>57</v>
       </c>
       <c r="F47">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G47">
-        <v>13.01</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1536,10 +1536,10 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G48">
-        <v>5.02</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1559,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G49">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
     </row>
   </sheetData>
